--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6712A7FF-76F8-4965-95FA-B90CF372D859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930979E-16A2-423A-A3F6-597BB601C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="chức năng đang đợi sửa" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>bạn bè, người theo dõi, người đang theo dõi</t>
+  </si>
+  <si>
+    <t>map, vị trí, không lưu được</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70D3BD-F2FD-4C4F-9401-009A7D6259BB}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +502,14 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB38209-B3E0-45CA-9209-97464A489390}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930979E-16A2-423A-A3F6-597BB601C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F507F5B-B970-48BD-B5A5-1D53DBB5ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="chức năng đang đợi sửa" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="chức năng đang đợi sửa" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -44,48 +46,89 @@
     <t>thừa icon lên xuống</t>
   </si>
   <si>
-    <t>trang cá nhân-  giới thiệu- mối quan hệ</t>
-  </si>
-  <si>
-    <t>load lại trang, chọn mqh không lưu được</t>
-  </si>
-  <si>
-    <t>noe</t>
-  </si>
-  <si>
-    <t>check validate  tư ngày, đến ngày</t>
-  </si>
-  <si>
-    <t>2023-10-9 Monday 09:51:21 root:INFO:check font-end: Bắt đầu công việc mới tại Quán trà đá
-2023-10-09 Monday 09:51:21 root:INFO:False
-2023-10-09 Monday 09:51:21 root:INFO:Trang cá nhân - giới thiệu - công việc và học vấn - công việc - xem sự kiện trong đời
-2023-10-09 Monday 09:51:21 root:INFO:check font-end: Thành phố làm việc - Hà Nội
-2023-10-09 Monday 09:51:21 root:INFO:False</t>
-  </si>
-  <si>
-    <t>chia log, tất cả và eror</t>
-  </si>
-  <si>
-    <t>quản lý log theo ngày</t>
-  </si>
-  <si>
-    <t>SN-4836</t>
-  </si>
-  <si>
     <t>gia đình và mối quan hệ, chưa có thông báo, chưa link</t>
   </si>
   <si>
     <t>bạn bè, người theo dõi, người đang theo dõi</t>
   </si>
   <si>
-    <t>map, vị trí, không lưu được</t>
+    <t>bỏ lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trực tiếp </t>
+  </si>
+  <si>
+    <t>Đơn đặt hàng và thanh toán</t>
+  </si>
+  <si>
+    <t>Đã lưu</t>
+  </si>
+  <si>
+    <t>Kỷ niệm</t>
+  </si>
+  <si>
+    <t>Hiến máu</t>
+  </si>
+  <si>
+    <t>Lối tắt của bạn</t>
+  </si>
+  <si>
+    <t>Ưu tiên</t>
+  </si>
+  <si>
+    <t>Khoảng khắc</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Sự kiện</t>
+  </si>
+  <si>
+    <t>Gọi vốn</t>
+  </si>
+  <si>
+    <t>Tuyển dụng</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-4934</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5116</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5129</t>
+  </si>
+  <si>
+    <t>trả lại</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5163</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5181</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5156</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5182</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5164</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +143,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,12 +172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70D3BD-F2FD-4C4F-9401-009A7D6259BB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="A9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,62 +520,191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://mangxahoi.atlassian.net/browse/SN-4836" xr:uid="{4C3FAF4F-C41A-4ADA-95A5-FFD534664FAD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BD183B-4C13-426B-A2BE-6F7EB24E0C3D}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7F639-1FA2-42E5-A2F9-8DB6223AFCF1}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BD183B-4C13-426B-A2BE-6F7EB24E0C3D}">
+  <dimension ref="A3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,27 +712,12 @@
     <col min="2" max="2" width="84.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45179</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -563,7 +727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB38209-B3E0-45CA-9209-97464A489390}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -581,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F507F5B-B970-48BD-B5A5-1D53DBB5ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC7378-0546-4044-85EF-4BD5FB62C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-5026</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5183</t>
   </si>
 </sst>
 </file>
@@ -172,13 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70D3BD-F2FD-4C4F-9401-009A7D6259BB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="A9:B13"/>
     </sheetView>
   </sheetViews>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,6 +629,35 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -713,8 +746,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC7378-0546-4044-85EF-4BD5FB62C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E63F75-5143-43A9-A3F7-4C2059AC831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-5183</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5232</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5221</t>
+  </si>
+  <si>
+    <t>Trả lại</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5220</t>
   </si>
 </sst>
 </file>
@@ -537,10 +552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,6 +674,43 @@
       </c>
       <c r="C16" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E63F75-5143-43A9-A3F7-4C2059AC831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BEC99-8730-43FC-9B88-17C9D1EF72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-5220</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5058</t>
   </si>
 </sst>
 </file>
@@ -552,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,6 +714,19 @@
       </c>
       <c r="C24" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BEC99-8730-43FC-9B88-17C9D1EF72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F182E4D-12E1-45CF-AE5D-1ABE99C41B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-5058</t>
+  </si>
+  <si>
+    <t>bình luận ko đóng popup cảm xúc</t>
+  </si>
+  <si>
+    <t>bình luận, up ảnh chưa xong like bị trắng trang</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5291</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A9:B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +551,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
     </row>
@@ -555,10 +580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,6 +752,19 @@
       </c>
       <c r="C28" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F182E4D-12E1-45CF-AE5D-1ABE99C41B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6720F41-6E8D-424C-89D9-3CA589B31A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -145,13 +145,46 @@
     <t>https://mangxahoi.atlassian.net/browse/SN-5058</t>
   </si>
   <si>
-    <t>bình luận ko đóng popup cảm xúc</t>
-  </si>
-  <si>
-    <t>bình luận, up ảnh chưa xong like bị trắng trang</t>
-  </si>
-  <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-5291</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5356</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5281</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5117</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5381</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5438</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5592</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5607</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5600</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5577</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5546</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5239</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5528</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5541</t>
   </si>
 </sst>
 </file>
@@ -533,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70D3BD-F2FD-4C4F-9401-009A7D6259BB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,22 +584,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
     </row>
@@ -580,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,9 +778,141 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
         <v>30</v>
       </c>
     </row>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6720F41-6E8D-424C-89D9-3CA589B31A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9D707-C8FA-4465-8BB6-FE871B229338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -185,6 +185,99 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-5541</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5482</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5667</t>
+  </si>
+  <si>
+    <t>đã log</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5669</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5596</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5671</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5593</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5379</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5586</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5547</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5413</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5417</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5585</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5525</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5383</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5516</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5372</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5523</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5376</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5623</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5608</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5529</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5597</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5673</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5678</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5680</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5581</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-4541</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5451</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5571</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5682</t>
   </si>
 </sst>
 </file>
@@ -566,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70D3BD-F2FD-4C4F-9401-009A7D6259BB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -597,15 +690,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -914,6 +1009,259 @@
       </c>
       <c r="C63" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>53</v>
+      </c>
+      <c r="H72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9D707-C8FA-4465-8BB6-FE871B229338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4098B77-0211-4C56-A11B-878A5EAE215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="note" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="chức năng đang đợi sửa" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="258">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -278,13 +278,568 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-5682</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5718</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5719</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5724</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5729</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5731</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5651</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5594</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5734</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5741</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5742</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5752</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5753</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5758</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5761</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5762</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5808</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5809</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5812</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5814</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5737</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5820</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5856</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5857</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5863</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5865</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5877</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5885</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5888</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5889</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5891</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5894</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5899</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5902</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5652</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5908</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5916</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5923</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5924</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5925</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5926</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5927</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5948</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5949</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5950</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5816</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5851</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5572</t>
+  </si>
+  <si>
+    <t>nhóm</t>
+  </si>
+  <si>
+    <t>đoạn chat cộng đồng - chưa có - ẩn</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5975</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5976</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luôn công khai </t>
+  </si>
+  <si>
+    <t>trang, gọi vốn, tuyẻn dụng, khóa học</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6043</t>
+  </si>
+  <si>
+    <t>1. Tạo Page bán hàng, 
+2. Admin Duyệt/ Xác minh Page
+3. Shop Đăng sản phẩm
+4. Admin Duyệt sản phẩm
+5. Admin Thêm Flash Sale/ Chiến dịch
+6. Shop thêm Flash sale/ Chương trình của Shop
+7. Shop đăng ký sản phẩm vào Flash Sale/ Chiến dịch
+8. Admin duyệt sản phẩm trong chiến dịch
+9. Người mua đặt hàng sản phẩm
+10. Shop xác nhận đơn hàng
+11. Người mua xác nhận nhận hàng thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Tạo Page bán hàng, </t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6074</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6078</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6080</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6082</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6137</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6138</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6143</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6145</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6146</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6147</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6148</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6150</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6127</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6176</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6177</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6178</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6182</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6190</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6205</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6198</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6067</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6246</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6248</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6254</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6255</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6257</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6159</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6263</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6264</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6238</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6266</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6268</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6271</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6347</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6355</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6209</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6186</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sửa lại code sự kiện </t>
+  </si>
+  <si>
+    <t>truong tét ban tin - bat kiem tien</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6370</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6372</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6373</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6374</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6084</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6453</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6461</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6462</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6217</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6469</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6485</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6507</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6591</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6595</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6597</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6603</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6606</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6607</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6622</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6623</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-5611</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>bảo mật</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>3-6 tháng</t>
+  </si>
+  <si>
+    <t>hiểu là cáu gì đã</t>
+  </si>
+  <si>
+    <t>đen</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>trắng -&gt; code</t>
+  </si>
+  <si>
+    <t>xám -&gt; test lead, ba</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6525</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6641</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6688</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6690</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6696</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6697</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6701</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6384</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6559</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6558</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6704</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6717</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6745</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6758</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6796</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6797</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6799</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6834</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6773</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6835</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6888</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6912</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6913</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6914</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6786</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6218</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6917</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6927</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6932</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6961</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6977</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7005</t>
+  </si>
+  <si>
+    <t>thêm mới sự kiện,   lỗi popup</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6765</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-6785</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7081</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7090</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7093</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7169</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7175</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7209</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7214</t>
+  </si>
+  <si>
+    <t>"-Thời Trang Nam
+-Thời Trang Nữ
+-Thiết Bị Âm Thanh
+-Thực phẩm và đồ uống
+-Điện Thoại &amp; Phụ Kiện
+-Phụ Kiện Thời Trang
+-Giày Dép Nam
+-Nhà cửa &amp; Đời sống
+-Sắc Đẹp
+-Sở thích &amp; Sưu tầm
+-Thời trang trẻ em &amp; trẻ sơ sinh
+-Thể Thao &amp; Dã Ngoại</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7295</t>
+  </si>
+  <si>
+    <t>luồng muathất bại =&gt; check nguoi ban</t>
+  </si>
+  <si>
+    <t>mua sản phẩm cuối hết hàng</t>
+  </si>
+  <si>
+    <t>đều check thông mua luồng mua</t>
+  </si>
+  <si>
+    <t>css lại giao diện thảo luận, set max hight, max width của Media trong Detail thảo luận</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7176</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7352</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +859,12 @@
       <sz val="7"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF7A7E85"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -328,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,6 +897,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,19 +1221,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70D3BD-F2FD-4C4F-9401-009A7D6259BB}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
     <col min="2" max="2" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,33 +1241,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="B7" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+    <row r="8" spans="1:2">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="G437" sqref="G437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="48.88671875" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -714,7 +1310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -725,7 +1321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -736,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -747,7 +1343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -755,7 +1351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -763,7 +1359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -771,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -779,7 +1375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -787,12 +1383,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="B13" s="4">
         <v>45224</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -800,7 +1396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -808,7 +1404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -816,12 +1412,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" s="4">
         <v>45226</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -829,7 +1425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -837,7 +1433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -845,7 +1441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -853,12 +1449,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="B27" s="4">
         <v>45229</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -866,12 +1462,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3">
       <c r="B33" s="4">
         <v>45231</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>35</v>
       </c>
@@ -879,12 +1475,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3">
       <c r="B36" s="4">
         <v>45232</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -892,7 +1488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -900,7 +1496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -908,12 +1504,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3">
       <c r="B44" s="4">
         <v>45236</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -921,12 +1517,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" s="4">
         <v>45239</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>39</v>
       </c>
@@ -934,7 +1530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>40</v>
       </c>
@@ -942,12 +1538,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" s="4">
         <v>45240</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>41</v>
       </c>
@@ -955,7 +1551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57" t="s">
         <v>42</v>
       </c>
@@ -963,7 +1559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>43</v>
       </c>
@@ -971,7 +1567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59" t="s">
         <v>44</v>
       </c>
@@ -979,7 +1575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -987,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61" t="s">
         <v>46</v>
       </c>
@@ -995,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>47</v>
       </c>
@@ -1003,7 +1599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63" t="s">
         <v>48</v>
       </c>
@@ -1011,12 +1607,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8">
       <c r="B68" s="4">
         <v>45243</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8">
       <c r="B69" t="s">
         <v>55</v>
       </c>
@@ -1030,7 +1626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8">
       <c r="B70" t="s">
         <v>56</v>
       </c>
@@ -1044,7 +1640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8">
       <c r="B71" t="s">
         <v>57</v>
       </c>
@@ -1058,7 +1654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8">
       <c r="B72" t="s">
         <v>58</v>
       </c>
@@ -1072,7 +1668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8">
       <c r="B73" t="s">
         <v>59</v>
       </c>
@@ -1086,7 +1682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8">
       <c r="B74" t="s">
         <v>60</v>
       </c>
@@ -1100,7 +1696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8">
       <c r="B75" t="s">
         <v>61</v>
       </c>
@@ -1114,7 +1710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8">
       <c r="B76" t="s">
         <v>62</v>
       </c>
@@ -1128,7 +1724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8">
       <c r="B77" t="s">
         <v>63</v>
       </c>
@@ -1136,7 +1732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8">
       <c r="B78" t="s">
         <v>64</v>
       </c>
@@ -1144,7 +1740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8">
       <c r="B79" t="s">
         <v>65</v>
       </c>
@@ -1152,7 +1748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8">
       <c r="B80" t="s">
         <v>66</v>
       </c>
@@ -1160,7 +1756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -1168,7 +1764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3">
       <c r="B82" t="s">
         <v>68</v>
       </c>
@@ -1176,7 +1772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3">
       <c r="B83" t="s">
         <v>69</v>
       </c>
@@ -1184,7 +1780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3">
       <c r="B84" t="s">
         <v>70</v>
       </c>
@@ -1192,7 +1788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3">
       <c r="B85" t="s">
         <v>71</v>
       </c>
@@ -1200,7 +1796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -1208,7 +1804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3">
       <c r="B87" t="s">
         <v>49</v>
       </c>
@@ -1216,7 +1812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3">
       <c r="B88" t="s">
         <v>75</v>
       </c>
@@ -1224,7 +1820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3">
       <c r="B89" t="s">
         <v>76</v>
       </c>
@@ -1232,7 +1828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3">
       <c r="B90" t="s">
         <v>40</v>
       </c>
@@ -1240,7 +1836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3">
       <c r="B91" t="s">
         <v>62</v>
       </c>
@@ -1248,7 +1844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3">
       <c r="B92" t="s">
         <v>77</v>
       </c>
@@ -1256,7 +1852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3">
       <c r="B93" t="s">
         <v>78</v>
       </c>
@@ -1264,22 +1860,2028 @@
         <v>21</v>
       </c>
     </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="4">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="G101" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="G102" t="s">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="G103" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="4">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>83</v>
+      </c>
+      <c r="H108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s">
+        <v>84</v>
+      </c>
+      <c r="H109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>87</v>
+      </c>
+      <c r="H110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>89</v>
+      </c>
+      <c r="H112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="4">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="G117" t="s">
+        <v>90</v>
+      </c>
+      <c r="H117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="G118" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="G119" t="s">
+        <v>92</v>
+      </c>
+      <c r="H119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="G120" t="s">
+        <v>93</v>
+      </c>
+      <c r="H120" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="G121" t="s">
+        <v>94</v>
+      </c>
+      <c r="H121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="4">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="G127" t="s">
+        <v>95</v>
+      </c>
+      <c r="H127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="G128" t="s">
+        <v>96</v>
+      </c>
+      <c r="H128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="G129" t="s">
+        <v>98</v>
+      </c>
+      <c r="H129" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="G130" t="s">
+        <v>97</v>
+      </c>
+      <c r="H130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="4">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" t="s">
+        <v>100</v>
+      </c>
+      <c r="H135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="4">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="G144" t="s">
+        <v>101</v>
+      </c>
+      <c r="H144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="G145" t="s">
+        <v>102</v>
+      </c>
+      <c r="H145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="G146" t="s">
+        <v>103</v>
+      </c>
+      <c r="H146" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="G147" t="s">
+        <v>104</v>
+      </c>
+      <c r="H147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="4">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="G153" t="s">
+        <v>105</v>
+      </c>
+      <c r="H153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="G154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H154" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="G155" t="s">
+        <v>107</v>
+      </c>
+      <c r="H155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="G156" t="s">
+        <v>108</v>
+      </c>
+      <c r="H156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="G157" t="s">
+        <v>109</v>
+      </c>
+      <c r="H157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="G158" t="s">
+        <v>110</v>
+      </c>
+      <c r="H158" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="G159" t="s">
+        <v>111</v>
+      </c>
+      <c r="H159" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="G160" t="s">
+        <v>112</v>
+      </c>
+      <c r="H160" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="4">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" t="s">
+        <v>101</v>
+      </c>
+      <c r="C164" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>114</v>
+      </c>
+      <c r="H164" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" t="s">
+        <v>115</v>
+      </c>
+      <c r="H165" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" t="s">
+        <v>96</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" t="s">
+        <v>83</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" t="s">
+        <v>113</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" t="s">
+        <v>100</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" t="s">
+        <v>103</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="4">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="G179" t="s">
+        <v>116</v>
+      </c>
+      <c r="H179" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8">
+      <c r="G180" t="s">
+        <v>117</v>
+      </c>
+      <c r="H180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="G181" t="s">
+        <v>118</v>
+      </c>
+      <c r="H181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="G182" t="s">
+        <v>119</v>
+      </c>
+      <c r="H182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="G183" t="s">
+        <v>120</v>
+      </c>
+      <c r="H183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="B187" s="4">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" t="s">
+        <v>100</v>
+      </c>
+      <c r="C188" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" t="s">
+        <v>121</v>
+      </c>
+      <c r="H188" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8">
+      <c r="B189" t="s">
+        <v>102</v>
+      </c>
+      <c r="C189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s">
+        <v>122</v>
+      </c>
+      <c r="H189" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="B190" t="s">
+        <v>107</v>
+      </c>
+      <c r="C190" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" t="s">
+        <v>123</v>
+      </c>
+      <c r="H190" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="B191" t="s">
+        <v>124</v>
+      </c>
+      <c r="C191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8">
+      <c r="B192" t="s">
+        <v>106</v>
+      </c>
+      <c r="C192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" t="s">
+        <v>125</v>
+      </c>
+      <c r="C193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" t="s">
+        <v>96</v>
+      </c>
+      <c r="C194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" t="s">
+        <v>126</v>
+      </c>
+      <c r="C195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" t="s">
+        <v>98</v>
+      </c>
+      <c r="C196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" t="s">
+        <v>95</v>
+      </c>
+      <c r="C197" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" t="s">
+        <v>93</v>
+      </c>
+      <c r="C198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" t="s">
+        <v>119</v>
+      </c>
+      <c r="C199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" t="s">
+        <v>105</v>
+      </c>
+      <c r="C201" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8">
+      <c r="B209" t="s">
+        <v>118</v>
+      </c>
+      <c r="C209" t="s">
+        <v>30</v>
+      </c>
+      <c r="G209" t="s">
+        <v>129</v>
+      </c>
+      <c r="H209" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="B210" t="s">
+        <v>117</v>
+      </c>
+      <c r="C210" t="s">
+        <v>30</v>
+      </c>
+      <c r="G210" t="s">
+        <v>130</v>
+      </c>
+      <c r="H210" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="B211" t="s">
+        <v>131</v>
+      </c>
+      <c r="C211" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="B212" t="s">
+        <v>126</v>
+      </c>
+      <c r="C212" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="B213" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="B214" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8">
+      <c r="B218" s="4">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8">
+      <c r="G219" t="s">
+        <v>134</v>
+      </c>
+      <c r="H219" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8">
+      <c r="B221" s="4">
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8">
+      <c r="G222" t="s">
+        <v>137</v>
+      </c>
+      <c r="H222" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8">
+      <c r="G223" t="s">
+        <v>138</v>
+      </c>
+      <c r="H223" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8">
+      <c r="G224" t="s">
+        <v>139</v>
+      </c>
+      <c r="H224" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8">
+      <c r="G225" t="s">
+        <v>140</v>
+      </c>
+      <c r="H225" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8">
+      <c r="B229" s="4">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8">
+      <c r="B230" t="s">
+        <v>149</v>
+      </c>
+      <c r="C230" t="s">
+        <v>30</v>
+      </c>
+      <c r="G230" t="s">
+        <v>141</v>
+      </c>
+      <c r="H230" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8">
+      <c r="G231" t="s">
+        <v>142</v>
+      </c>
+      <c r="H231" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8">
+      <c r="G232" t="s">
+        <v>143</v>
+      </c>
+      <c r="H232" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8">
+      <c r="G233" t="s">
+        <v>144</v>
+      </c>
+      <c r="H233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8">
+      <c r="G234" t="s">
+        <v>145</v>
+      </c>
+      <c r="H234" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8">
+      <c r="G235" t="s">
+        <v>146</v>
+      </c>
+      <c r="H235" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8">
+      <c r="G236" t="s">
+        <v>147</v>
+      </c>
+      <c r="H236" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8">
+      <c r="G237" t="s">
+        <v>148</v>
+      </c>
+      <c r="H237" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10">
+      <c r="B241" s="4">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" ht="172.8">
+      <c r="B242" t="s">
+        <v>157</v>
+      </c>
+      <c r="C242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G242" t="s">
+        <v>150</v>
+      </c>
+      <c r="H242" t="s">
+        <v>51</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10">
+      <c r="B243" t="s">
+        <v>122</v>
+      </c>
+      <c r="C243" t="s">
+        <v>32</v>
+      </c>
+      <c r="G243" t="s">
+        <v>151</v>
+      </c>
+      <c r="H243" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="B244" t="s">
+        <v>142</v>
+      </c>
+      <c r="C244" t="s">
+        <v>32</v>
+      </c>
+      <c r="G244" t="s">
+        <v>152</v>
+      </c>
+      <c r="H244" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="B245" t="s">
+        <v>109</v>
+      </c>
+      <c r="C245" t="s">
+        <v>30</v>
+      </c>
+      <c r="G245" t="s">
+        <v>153</v>
+      </c>
+      <c r="H245" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="G246" t="s">
+        <v>154</v>
+      </c>
+      <c r="H246" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10">
+      <c r="G247" t="s">
+        <v>155</v>
+      </c>
+      <c r="H247" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10">
+      <c r="G248" t="s">
+        <v>156</v>
+      </c>
+      <c r="H248" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="B252" s="4">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10">
+      <c r="B253" t="s">
+        <v>163</v>
+      </c>
+      <c r="C253" t="s">
+        <v>30</v>
+      </c>
+      <c r="G253" t="s">
+        <v>158</v>
+      </c>
+      <c r="H253" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10">
+      <c r="B254" t="s">
+        <v>155</v>
+      </c>
+      <c r="C254" t="s">
+        <v>30</v>
+      </c>
+      <c r="G254" t="s">
+        <v>159</v>
+      </c>
+      <c r="H254" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10">
+      <c r="B255" t="s">
+        <v>150</v>
+      </c>
+      <c r="C255" t="s">
+        <v>30</v>
+      </c>
+      <c r="G255" t="s">
+        <v>160</v>
+      </c>
+      <c r="H255" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10">
+      <c r="B256" t="s">
+        <v>153</v>
+      </c>
+      <c r="C256" t="s">
+        <v>30</v>
+      </c>
+      <c r="G256" t="s">
+        <v>161</v>
+      </c>
+      <c r="H256" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8">
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="C257" t="s">
+        <v>30</v>
+      </c>
+      <c r="G257" t="s">
+        <v>162</v>
+      </c>
+      <c r="H257" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8">
+      <c r="B258" t="s">
+        <v>166</v>
+      </c>
+      <c r="C258" t="s">
+        <v>32</v>
+      </c>
+      <c r="G258" t="s">
+        <v>164</v>
+      </c>
+      <c r="H258" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8">
+      <c r="B259" t="s">
+        <v>140</v>
+      </c>
+      <c r="C259" t="s">
+        <v>30</v>
+      </c>
+      <c r="G259" t="s">
+        <v>165</v>
+      </c>
+      <c r="H259" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8">
+      <c r="B260" t="s">
+        <v>140</v>
+      </c>
+      <c r="C260" t="s">
+        <v>30</v>
+      </c>
+      <c r="G260" t="s">
+        <v>167</v>
+      </c>
+      <c r="H260" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8">
+      <c r="G261" t="s">
+        <v>168</v>
+      </c>
+      <c r="H261" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8">
+      <c r="G262" t="s">
+        <v>169</v>
+      </c>
+      <c r="H262" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8">
+      <c r="B268" s="4">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8">
+      <c r="B269" t="s">
+        <v>165</v>
+      </c>
+      <c r="C269" t="s">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>170</v>
+      </c>
+      <c r="H269" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8">
+      <c r="B270" t="s">
+        <v>172</v>
+      </c>
+      <c r="C270" t="s">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>171</v>
+      </c>
+      <c r="H270" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8">
+      <c r="B271" t="s">
+        <v>173</v>
+      </c>
+      <c r="C271" t="s">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>174</v>
+      </c>
+      <c r="H271" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8">
+      <c r="B272" t="s">
+        <v>158</v>
+      </c>
+      <c r="C272" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8">
+      <c r="G275" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8">
+      <c r="B278" s="4">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8">
+      <c r="B279" t="s">
+        <v>181</v>
+      </c>
+      <c r="C279" t="s">
+        <v>32</v>
+      </c>
+      <c r="G279" t="s">
+        <v>177</v>
+      </c>
+      <c r="H279" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8">
+      <c r="B280" t="s">
+        <v>155</v>
+      </c>
+      <c r="C280" t="s">
+        <v>30</v>
+      </c>
+      <c r="G280" t="s">
+        <v>178</v>
+      </c>
+      <c r="H280" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8">
+      <c r="B281" t="s">
+        <v>168</v>
+      </c>
+      <c r="C281" t="s">
+        <v>30</v>
+      </c>
+      <c r="G281" t="s">
+        <v>179</v>
+      </c>
+      <c r="H281" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8">
+      <c r="B282" t="s">
+        <v>160</v>
+      </c>
+      <c r="C282" t="s">
+        <v>30</v>
+      </c>
+      <c r="G282" t="s">
+        <v>180</v>
+      </c>
+      <c r="H282" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8">
+      <c r="B287" s="4">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8">
+      <c r="B288" t="s">
+        <v>169</v>
+      </c>
+      <c r="C288" t="s">
+        <v>30</v>
+      </c>
+      <c r="G288" t="s">
+        <v>182</v>
+      </c>
+      <c r="H288" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8">
+      <c r="B289" t="s">
+        <v>185</v>
+      </c>
+      <c r="C289" t="s">
+        <v>30</v>
+      </c>
+      <c r="G289" t="s">
+        <v>183</v>
+      </c>
+      <c r="H289" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8">
+      <c r="B290" t="s">
+        <v>146</v>
+      </c>
+      <c r="C290" t="s">
+        <v>30</v>
+      </c>
+      <c r="G290" t="s">
+        <v>184</v>
+      </c>
+      <c r="H290" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8">
+      <c r="B291" t="s">
+        <v>180</v>
+      </c>
+      <c r="C291" t="s">
+        <v>32</v>
+      </c>
+      <c r="G291" t="s">
+        <v>186</v>
+      </c>
+      <c r="H291" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8">
+      <c r="B298" s="4">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8">
+      <c r="G299" t="s">
+        <v>187</v>
+      </c>
+      <c r="H299" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8">
+      <c r="B303" s="4">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8">
+      <c r="G304" t="s">
+        <v>188</v>
+      </c>
+      <c r="H304" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8">
+      <c r="B309" s="4">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8">
+      <c r="B310" t="s">
+        <v>197</v>
+      </c>
+      <c r="C310" t="s">
+        <v>30</v>
+      </c>
+      <c r="G310" t="s">
+        <v>189</v>
+      </c>
+      <c r="H310" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8">
+      <c r="B311" t="s">
+        <v>189</v>
+      </c>
+      <c r="C311" t="s">
+        <v>30</v>
+      </c>
+      <c r="G311" t="s">
+        <v>190</v>
+      </c>
+      <c r="H311" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8">
+      <c r="B312" t="s">
+        <v>208</v>
+      </c>
+      <c r="C312" t="s">
+        <v>30</v>
+      </c>
+      <c r="G312" t="s">
+        <v>191</v>
+      </c>
+      <c r="H312" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8">
+      <c r="G313" t="s">
+        <v>192</v>
+      </c>
+      <c r="H313" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8">
+      <c r="G314" t="s">
+        <v>193</v>
+      </c>
+      <c r="H314" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8">
+      <c r="G315" t="s">
+        <v>194</v>
+      </c>
+      <c r="H315" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="2:8">
+      <c r="G316" t="s">
+        <v>195</v>
+      </c>
+      <c r="H316" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8">
+      <c r="G317" t="s">
+        <v>196</v>
+      </c>
+      <c r="H317" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8">
+      <c r="G318" t="s">
+        <v>209</v>
+      </c>
+      <c r="H318" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8">
+      <c r="B326" t="s">
+        <v>198</v>
+      </c>
+      <c r="C326" t="s">
+        <v>202</v>
+      </c>
+      <c r="D326" t="s">
+        <v>203</v>
+      </c>
+      <c r="E326" t="s">
+        <v>206</v>
+      </c>
+      <c r="G326" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="327" spans="2:8">
+      <c r="B327" t="s">
+        <v>199</v>
+      </c>
+      <c r="E327" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="328" spans="2:8">
+      <c r="B328" t="s">
+        <v>200</v>
+      </c>
+      <c r="E328" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="329" spans="2:8">
+      <c r="B329" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="333" spans="2:8">
+      <c r="B333" s="4">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="334" spans="2:8">
+      <c r="B334" t="s">
+        <v>191</v>
+      </c>
+      <c r="C334" t="s">
+        <v>30</v>
+      </c>
+      <c r="G334" t="s">
+        <v>210</v>
+      </c>
+      <c r="H334" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="335" spans="2:8">
+      <c r="B335" t="s">
+        <v>184</v>
+      </c>
+      <c r="C335" t="s">
+        <v>30</v>
+      </c>
+      <c r="G335" t="s">
+        <v>211</v>
+      </c>
+      <c r="H335" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="336" spans="2:8">
+      <c r="B336" t="s">
+        <v>215</v>
+      </c>
+      <c r="C336" t="s">
+        <v>32</v>
+      </c>
+      <c r="G336" t="s">
+        <v>212</v>
+      </c>
+      <c r="H336" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8">
+      <c r="B337" t="s">
+        <v>216</v>
+      </c>
+      <c r="C337" t="s">
+        <v>30</v>
+      </c>
+      <c r="G337" t="s">
+        <v>213</v>
+      </c>
+      <c r="H337" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8">
+      <c r="B338" t="s">
+        <v>196</v>
+      </c>
+      <c r="C338" t="s">
+        <v>32</v>
+      </c>
+      <c r="G338" t="s">
+        <v>214</v>
+      </c>
+      <c r="H338" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="339" spans="2:8">
+      <c r="B339" t="s">
+        <v>217</v>
+      </c>
+      <c r="C339" t="s">
+        <v>32</v>
+      </c>
+      <c r="G339" t="s">
+        <v>218</v>
+      </c>
+      <c r="H339" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="340" spans="2:8">
+      <c r="B340" t="s">
+        <v>190</v>
+      </c>
+      <c r="C340" t="s">
+        <v>30</v>
+      </c>
+      <c r="G340" t="s">
+        <v>219</v>
+      </c>
+      <c r="H340" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8">
+      <c r="G347" t="s">
+        <v>220</v>
+      </c>
+      <c r="H347" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8">
+      <c r="G348" t="s">
+        <v>221</v>
+      </c>
+      <c r="H348" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8">
+      <c r="B351" s="4">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="352" spans="2:8">
+      <c r="B352" t="s">
+        <v>214</v>
+      </c>
+      <c r="C352" t="s">
+        <v>30</v>
+      </c>
+      <c r="G352" t="s">
+        <v>222</v>
+      </c>
+      <c r="H352" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="353" spans="2:8">
+      <c r="B353" t="s">
+        <v>196</v>
+      </c>
+      <c r="C353" t="s">
+        <v>30</v>
+      </c>
+      <c r="G353" t="s">
+        <v>223</v>
+      </c>
+      <c r="H353" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="2:8">
+      <c r="B354" t="s">
+        <v>211</v>
+      </c>
+      <c r="C354" t="s">
+        <v>32</v>
+      </c>
+      <c r="G354" t="s">
+        <v>224</v>
+      </c>
+      <c r="H354" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="355" spans="2:8">
+      <c r="B355" t="s">
+        <v>212</v>
+      </c>
+      <c r="C355" t="s">
+        <v>30</v>
+      </c>
+      <c r="G355" t="s">
+        <v>225</v>
+      </c>
+      <c r="H355" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="356" spans="2:8">
+      <c r="B356" t="s">
+        <v>213</v>
+      </c>
+      <c r="C356" t="s">
+        <v>30</v>
+      </c>
+      <c r="G356" t="s">
+        <v>227</v>
+      </c>
+      <c r="H356" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="357" spans="2:8">
+      <c r="B357" t="s">
+        <v>218</v>
+      </c>
+      <c r="C357" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="358" spans="2:8">
+      <c r="B358" t="s">
+        <v>226</v>
+      </c>
+      <c r="C358" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="2:8">
+      <c r="B366" t="s">
+        <v>217</v>
+      </c>
+      <c r="C366" t="s">
+        <v>32</v>
+      </c>
+      <c r="G366" t="s">
+        <v>228</v>
+      </c>
+      <c r="H366" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="367" spans="2:8">
+      <c r="B367" t="s">
+        <v>137</v>
+      </c>
+      <c r="C367" t="s">
+        <v>30</v>
+      </c>
+      <c r="G367" t="s">
+        <v>229</v>
+      </c>
+      <c r="H367" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="368" spans="2:8">
+      <c r="B368" t="s">
+        <v>215</v>
+      </c>
+      <c r="C368" t="s">
+        <v>30</v>
+      </c>
+      <c r="G368" t="s">
+        <v>230</v>
+      </c>
+      <c r="H368" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="369" spans="2:8">
+      <c r="B369" t="s">
+        <v>232</v>
+      </c>
+      <c r="C369" t="s">
+        <v>30</v>
+      </c>
+      <c r="G369" t="s">
+        <v>231</v>
+      </c>
+      <c r="H369" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="370" spans="2:8">
+      <c r="B370" t="s">
+        <v>233</v>
+      </c>
+      <c r="C370" t="s">
+        <v>30</v>
+      </c>
+      <c r="G370" t="s">
+        <v>234</v>
+      </c>
+      <c r="H370" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="371" spans="2:8">
+      <c r="B371" t="s">
+        <v>224</v>
+      </c>
+      <c r="C371" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="378" spans="2:8">
+      <c r="B378" t="s">
+        <v>211</v>
+      </c>
+      <c r="C378" t="s">
+        <v>32</v>
+      </c>
+      <c r="G378" t="s">
+        <v>235</v>
+      </c>
+      <c r="H378" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="379" spans="2:8">
+      <c r="B379" t="s">
+        <v>225</v>
+      </c>
+      <c r="C379" t="s">
+        <v>32</v>
+      </c>
+      <c r="G379" t="s">
+        <v>236</v>
+      </c>
+      <c r="H379" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="380" spans="2:8">
+      <c r="B380" t="s">
+        <v>223</v>
+      </c>
+      <c r="C380" t="s">
+        <v>32</v>
+      </c>
+      <c r="G380" t="s">
+        <v>237</v>
+      </c>
+      <c r="H380" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="381" spans="2:8">
+      <c r="B381" t="s">
+        <v>166</v>
+      </c>
+      <c r="C381" t="s">
+        <v>32</v>
+      </c>
+      <c r="G381" t="s">
+        <v>238</v>
+      </c>
+      <c r="H381" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="382" spans="2:8">
+      <c r="B382" t="s">
+        <v>217</v>
+      </c>
+      <c r="C382" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="386" spans="2:8">
+      <c r="B386" s="4">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="387" spans="2:8">
+      <c r="B387" t="s">
+        <v>223</v>
+      </c>
+      <c r="C387" t="s">
+        <v>30</v>
+      </c>
+      <c r="G387" t="s">
+        <v>239</v>
+      </c>
+      <c r="H387" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="388" spans="2:8">
+      <c r="B388" t="s">
+        <v>217</v>
+      </c>
+      <c r="C388" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="389" spans="2:8">
+      <c r="B389" t="s">
+        <v>235</v>
+      </c>
+      <c r="C389" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="390" spans="2:8">
+      <c r="B390" t="s">
+        <v>229</v>
+      </c>
+      <c r="C390" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="391" spans="2:8">
+      <c r="B391" t="s">
+        <v>236</v>
+      </c>
+      <c r="C391" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="392" spans="2:8">
+      <c r="B392" t="s">
+        <v>220</v>
+      </c>
+      <c r="C392" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8">
+      <c r="B400" t="s">
+        <v>219</v>
+      </c>
+      <c r="C400" t="s">
+        <v>30</v>
+      </c>
+      <c r="G400" t="s">
+        <v>243</v>
+      </c>
+      <c r="H400" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="401" spans="2:8">
+      <c r="B401" t="s">
+        <v>241</v>
+      </c>
+      <c r="C401" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="402" spans="2:8">
+      <c r="B402" t="s">
+        <v>231</v>
+      </c>
+      <c r="C402" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="403" spans="2:8">
+      <c r="B403" t="s">
+        <v>242</v>
+      </c>
+      <c r="C403" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="404" spans="2:8">
+      <c r="B404" t="s">
+        <v>225</v>
+      </c>
+      <c r="C404" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="405" spans="2:8">
+      <c r="B405" t="s">
+        <v>30</v>
+      </c>
+      <c r="C405" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411" spans="2:8">
+      <c r="B411" t="s">
+        <v>219</v>
+      </c>
+      <c r="C411" t="s">
+        <v>32</v>
+      </c>
+      <c r="G411" t="s">
+        <v>244</v>
+      </c>
+      <c r="H411" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="412" spans="2:8">
+      <c r="B412" t="s">
+        <v>237</v>
+      </c>
+      <c r="C412" t="s">
+        <v>30</v>
+      </c>
+      <c r="G412" t="s">
+        <v>245</v>
+      </c>
+      <c r="H412" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="413" spans="2:8">
+      <c r="B413" t="s">
+        <v>193</v>
+      </c>
+      <c r="C413" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="414" spans="2:8">
+      <c r="B414" t="s">
+        <v>194</v>
+      </c>
+      <c r="C414" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="415" spans="2:8">
+      <c r="B415" t="s">
+        <v>227</v>
+      </c>
+      <c r="C415" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="416" spans="2:8">
+      <c r="B416" t="s">
+        <v>166</v>
+      </c>
+      <c r="C416" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="417" spans="2:8">
+      <c r="B417" t="s">
+        <v>228</v>
+      </c>
+      <c r="C417" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="421" spans="2:8">
+      <c r="B421" s="4">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="422" spans="2:8">
+      <c r="G422" t="s">
+        <v>246</v>
+      </c>
+      <c r="H422" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="423" spans="2:8">
+      <c r="G423" t="s">
+        <v>247</v>
+      </c>
+      <c r="H423" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="426" spans="2:8">
+      <c r="B426" s="4">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="427" spans="2:8">
+      <c r="G427" t="s">
+        <v>248</v>
+      </c>
+      <c r="H427" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="428" spans="2:8">
+      <c r="G428" t="s">
+        <v>248</v>
+      </c>
+      <c r="H428" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="429" spans="2:8">
+      <c r="G429" t="s">
+        <v>249</v>
+      </c>
+      <c r="H429" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="432" spans="2:8">
+      <c r="B432" s="4">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="433" spans="2:8">
+      <c r="B433" t="s">
+        <v>256</v>
+      </c>
+      <c r="C433" t="s">
+        <v>30</v>
+      </c>
+      <c r="G433" t="s">
+        <v>251</v>
+      </c>
+      <c r="H433" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="434" spans="2:8">
+      <c r="B434" t="s">
+        <v>108</v>
+      </c>
+      <c r="C434" t="s">
+        <v>30</v>
+      </c>
+      <c r="G434" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="435" spans="2:8">
+      <c r="B435" t="s">
+        <v>174</v>
+      </c>
+      <c r="C435" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="436" spans="2:8">
+      <c r="B436" t="s">
+        <v>245</v>
+      </c>
+      <c r="C436" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7F639-1FA2-42E5-A2F9-8DB6223AFCF1}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +3892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +3900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +3908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +3916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1322,12 +3924,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1337,23 +3979,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BD183B-4C13-426B-A2BE-6F7EB24E0C3D}">
-  <dimension ref="A3:B4"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="62.33203125" customWidth="1"/>
     <col min="2" max="2" width="84.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="158.4">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1371,12 +4024,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1384,7 +4037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4098B77-0211-4C56-A11B-878A5EAE215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022CA37-50B1-491D-B023-313D5AA71040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="287">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -833,6 +833,93 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-7352</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7401</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7425</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7193</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7488</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7492</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7493</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7458</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7213</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7468</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7619</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7624</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7634</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7637</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7565</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7514</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7680</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7682</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7692</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7700</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7704</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7706</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7720</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7741</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7749</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7775</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7803</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7827</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7837</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-7914</t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:J436"/>
+  <dimension ref="A1:J513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="G437" sqref="G437"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3859,6 +3946,331 @@
       </c>
       <c r="C436" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="439" spans="2:8">
+      <c r="B439" s="4">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="441" spans="2:8">
+      <c r="B441" t="s">
+        <v>248</v>
+      </c>
+      <c r="C441" t="s">
+        <v>30</v>
+      </c>
+      <c r="G441" t="s">
+        <v>258</v>
+      </c>
+      <c r="H441" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="442" spans="2:8">
+      <c r="B442" t="s">
+        <v>260</v>
+      </c>
+      <c r="C442" t="s">
+        <v>30</v>
+      </c>
+      <c r="G442" t="s">
+        <v>259</v>
+      </c>
+      <c r="H442" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="446" spans="2:8">
+      <c r="B446" s="4">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="447" spans="2:8">
+      <c r="B447" t="s">
+        <v>264</v>
+      </c>
+      <c r="C447" t="s">
+        <v>30</v>
+      </c>
+      <c r="G447" t="s">
+        <v>261</v>
+      </c>
+      <c r="H447" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="448" spans="2:8">
+      <c r="B448" t="s">
+        <v>258</v>
+      </c>
+      <c r="C448" t="s">
+        <v>30</v>
+      </c>
+      <c r="G448" t="s">
+        <v>262</v>
+      </c>
+      <c r="H448" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="449" spans="2:8">
+      <c r="B449" t="s">
+        <v>265</v>
+      </c>
+      <c r="C449" t="s">
+        <v>30</v>
+      </c>
+      <c r="G449" t="s">
+        <v>263</v>
+      </c>
+      <c r="H449" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="450" spans="2:8">
+      <c r="B450" t="s">
+        <v>266</v>
+      </c>
+      <c r="C450" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="454" spans="2:8">
+      <c r="B454" s="4">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="455" spans="2:8">
+      <c r="G455" t="s">
+        <v>267</v>
+      </c>
+      <c r="H455" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="456" spans="2:8">
+      <c r="G456" t="s">
+        <v>268</v>
+      </c>
+      <c r="H456" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="461" spans="2:8">
+      <c r="B461" s="4">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="462" spans="2:8">
+      <c r="B462" t="s">
+        <v>271</v>
+      </c>
+      <c r="C462" t="s">
+        <v>32</v>
+      </c>
+      <c r="G462" t="s">
+        <v>269</v>
+      </c>
+      <c r="H462" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="463" spans="2:8">
+      <c r="B463" t="s">
+        <v>272</v>
+      </c>
+      <c r="C463" t="s">
+        <v>30</v>
+      </c>
+      <c r="G463" t="s">
+        <v>270</v>
+      </c>
+      <c r="H463" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="464" spans="2:8">
+      <c r="B464" t="s">
+        <v>219</v>
+      </c>
+      <c r="C464" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469" spans="2:8">
+      <c r="B469" s="4">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="470" spans="2:8">
+      <c r="G470" t="s">
+        <v>273</v>
+      </c>
+      <c r="H470" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="471" spans="2:8">
+      <c r="G471" t="s">
+        <v>274</v>
+      </c>
+      <c r="H471" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="472" spans="2:8">
+      <c r="G472" t="s">
+        <v>275</v>
+      </c>
+      <c r="H472" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="473" spans="2:8">
+      <c r="G473" t="s">
+        <v>276</v>
+      </c>
+      <c r="H473" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="474" spans="2:8">
+      <c r="G474" t="s">
+        <v>277</v>
+      </c>
+      <c r="H474" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="475" spans="2:8">
+      <c r="G475" t="s">
+        <v>278</v>
+      </c>
+      <c r="H475" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="481" spans="2:8">
+      <c r="B481" s="4">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="482" spans="2:8">
+      <c r="G482" t="s">
+        <v>279</v>
+      </c>
+      <c r="H482" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="483" spans="2:8">
+      <c r="G483" t="s">
+        <v>280</v>
+      </c>
+      <c r="H483" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="488" spans="2:8">
+      <c r="B488" s="4">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="489" spans="2:8">
+      <c r="G489" t="s">
+        <v>281</v>
+      </c>
+      <c r="H489" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="493" spans="2:8">
+      <c r="B493" s="4">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="494" spans="2:8">
+      <c r="G494" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="497" spans="2:8">
+      <c r="B497" s="4">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="498" spans="2:8">
+      <c r="B498" t="s">
+        <v>282</v>
+      </c>
+      <c r="C498" t="s">
+        <v>30</v>
+      </c>
+      <c r="G498" t="s">
+        <v>283</v>
+      </c>
+      <c r="H498" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="499" spans="2:8">
+      <c r="B499" t="s">
+        <v>257</v>
+      </c>
+      <c r="C499" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500" spans="2:8">
+      <c r="B500" t="s">
+        <v>281</v>
+      </c>
+      <c r="C500" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="506" spans="2:8">
+      <c r="B506" s="4">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="507" spans="2:8">
+      <c r="B507" t="s">
+        <v>270</v>
+      </c>
+      <c r="C507" t="s">
+        <v>30</v>
+      </c>
+      <c r="G507" t="s">
+        <v>284</v>
+      </c>
+      <c r="H507" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="508" spans="2:8">
+      <c r="C508" t="s">
+        <v>30</v>
+      </c>
+      <c r="G508" t="s">
+        <v>285</v>
+      </c>
+      <c r="H508" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="512" spans="2:8">
+      <c r="B512" s="4">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="513" spans="7:8">
+      <c r="G513" t="s">
+        <v>286</v>
+      </c>
+      <c r="H513" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/bug_emso.xlsx
+++ b/bug_emso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022CA37-50B1-491D-B023-313D5AA71040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB14839-02D8-4AA0-9898-E45F9D8CA8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{80B3C453-B647-4C99-BD00-7FA445B8CCBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="295">
   <si>
     <t>trang cá nhân-  giới thiệu- số điện thoại</t>
   </si>
@@ -920,6 +920,30 @@
   </si>
   <si>
     <t>https://mangxahoi.atlassian.net/browse/SN-7914</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8035</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8036</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8038</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8050</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8052</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8121</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8126</t>
+  </si>
+  <si>
+    <t>https://mangxahoi.atlassian.net/browse/SN-8132</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8CA9E-B3AA-46F4-BDA3-C3AC47B85FE4}">
-  <dimension ref="A1:J513"/>
+  <dimension ref="A1:J535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="E504" sqref="E504"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4250,9 +4274,6 @@
       </c>
     </row>
     <row r="508" spans="2:8">
-      <c r="C508" t="s">
-        <v>30</v>
-      </c>
       <c r="G508" t="s">
         <v>285</v>
       </c>
@@ -4265,11 +4286,97 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="513" spans="7:8">
+    <row r="513" spans="2:8">
       <c r="G513" t="s">
         <v>286</v>
       </c>
       <c r="H513" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="520" spans="2:8">
+      <c r="B520" s="4">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="521" spans="2:8">
+      <c r="B521" t="s">
+        <v>277</v>
+      </c>
+      <c r="C521" t="s">
+        <v>30</v>
+      </c>
+      <c r="G521" t="s">
+        <v>287</v>
+      </c>
+      <c r="H521" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="522" spans="2:8">
+      <c r="G522" t="s">
+        <v>288</v>
+      </c>
+      <c r="H522" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="523" spans="2:8">
+      <c r="G523" t="s">
+        <v>289</v>
+      </c>
+      <c r="H523" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="524" spans="2:8">
+      <c r="G524" t="s">
+        <v>290</v>
+      </c>
+      <c r="H524" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="525" spans="2:8">
+      <c r="G525" t="s">
+        <v>291</v>
+      </c>
+      <c r="H525" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="532" spans="2:8">
+      <c r="B532" s="4">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="533" spans="2:8">
+      <c r="B533" t="s">
+        <v>288</v>
+      </c>
+      <c r="C533" t="s">
+        <v>30</v>
+      </c>
+      <c r="G533" t="s">
+        <v>292</v>
+      </c>
+      <c r="H533" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="534" spans="2:8">
+      <c r="G534" t="s">
+        <v>293</v>
+      </c>
+      <c r="H534" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="535" spans="2:8">
+      <c r="G535" t="s">
+        <v>294</v>
+      </c>
+      <c r="H535" t="s">
         <v>51</v>
       </c>
     </row>
